--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs_HK.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs_HK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\eps-1.4.3-hk-wipB\eps-1.4.3-hk-wipB\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-2.0.0-us-wipF\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{49BBDC4E-F4A1-4D4E-9667-F7F2C2294AED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8861858C-D966-47E1-8F5D-A8777821DFAF}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{49BBDC4E-F4A1-4D4E-9667-F7F2C2294AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{659B969C-114C-4C24-B49C-715FC6726FF6}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10725" yWindow="915" windowWidth="10455" windowHeight="10695" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="O&amp;M Share" sheetId="25" r:id="rId6"/>
     <sheet name="Cost Improvement (other)" sheetId="15" r:id="rId7"/>
     <sheet name="Cost Improvement (wind&amp;solar)" sheetId="24" r:id="rId8"/>
-    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId9"/>
-    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId10"/>
-    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId11"/>
+    <sheet name="MSW HK" sheetId="26" r:id="rId9"/>
+    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId10"/>
+    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId11"/>
+    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="370">
   <si>
     <t>CCaMC Annual Fixed O&amp;M Cost per Unit Capacity</t>
   </si>
@@ -1570,12 +1571,49 @@
   <si>
     <t>World Energy Council</t>
   </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">construction </t>
+  </si>
+  <si>
+    <t>billion HKD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation </t>
+  </si>
+  <si>
+    <t>excahneg rate</t>
+  </si>
+  <si>
+    <t>billion USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity </t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost </t>
+  </si>
+  <si>
+    <t>billion HKD/year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="###0;###0"/>
@@ -1770,7 +1808,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1798,6 +1836,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1973,7 +2017,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
@@ -2015,8 +2059,9 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2189,6 +2234,10 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2199,8 +2248,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" customBuiltin="1"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Footnotes: all except top row" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -2257,6 +2307,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284952</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>56500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70C2D00C-4DD7-4260-B5B0-08E8B7EEF420}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6380952" cy="5200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3567,14 +3666,320 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4">
+        <f>EDO!E7*About!A60*1000</f>
+        <v>28508.559999999998</v>
+      </c>
+      <c r="C2" s="4">
+        <f>$B2</f>
+        <v>28508.559999999998</v>
+      </c>
+      <c r="D2" s="4">
+        <f>$B2</f>
+        <v>28508.559999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4">
+        <f>EDO!E6*About!A60*1000</f>
+        <v>7156.27</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:D10" si="0">$B3</f>
+        <v>7156.27</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>7156.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="4">
+        <f>EDO!E9*About!A60*1000</f>
+        <v>129298.36</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>129298.36</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>129298.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Hydro and Geothermal'!C2*(1-'O&amp;M Share'!R2)*About!A58*1000</f>
+        <v>13002.649891226933</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>13002.649891226933</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>13002.649891226933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4">
+        <f>EDO!E3*About!A60*1000</f>
+        <v>10564.48</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>10564.48</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>10564.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4">
+        <f>EDO!E5*About!A60*1000</f>
+        <v>26013.089999999997</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>26013.089999999997</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>26013.089999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="4">
+        <f>'Solar thermal'!C3*(1-'O&amp;M Share'!R3)</f>
+        <v>44500</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>44500</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4">
+        <f>EDO!E8*About!A60*1000</f>
+        <v>29071.74</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>29071.74</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>29071.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="4">
+        <f>'Hydro and Geothermal'!C3*(1-'O&amp;M Share'!R4)*About!A58*1000</f>
+        <v>104830</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>104830</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>104830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7340</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4">
+        <f>B3*('EIA Costs'!$F$9/'EIA Costs'!$F$6)</f>
+        <v>3279.9570833333337</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C3*('EIA Costs'!$F$9/'EIA Costs'!$F$6)</f>
+        <v>3279.9570833333337</v>
+      </c>
+      <c r="D12" s="4">
+        <f>D3*('EIA Costs'!$F$9/'EIA Costs'!$F$6)</f>
+        <v>3279.9570833333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B2</f>
+        <v>28508.559999999998</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" ref="C13:D13" si="1">C2</f>
+        <v>28508.559999999998</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>28508.559999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4">
+        <f>EDO!E4*About!A60*1000</f>
+        <v>16905.11</v>
+      </c>
+      <c r="C14" s="4">
+        <f>$B14</f>
+        <v>16905.11</v>
+      </c>
+      <c r="D14" s="4">
+        <f>$B14</f>
+        <v>16905.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B11</f>
+        <v>7340</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <f>D11</f>
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B11</f>
+        <v>7340</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <f>D11</f>
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" s="75">
+        <f>'MSW HK'!N9</f>
+        <v>14962453.333333334</v>
+      </c>
+      <c r="C17" s="73">
+        <v>0</v>
+      </c>
+      <c r="D17" s="72">
+        <f>B17</f>
+        <v>14962453.333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3814,6 +4219,54 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="9">
+        <f>B11</f>
+        <v>15.44</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15:D16" si="2">C11</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="2"/>
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="9">
+        <f>B12</f>
+        <v>0.18475724770642199</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="2"/>
+        <v>0.18475724770642199</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="2"/>
+        <v>0.18475724770642199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17">
+        <v>8.49</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>8.49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3821,15 +4274,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -3846,11 +4299,11 @@
     <col min="11" max="11" width="20.85546875" style="61" customWidth="1"/>
     <col min="12" max="12" width="28.140625" style="61" customWidth="1"/>
     <col min="13" max="13" width="19.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="61"/>
+    <col min="14" max="17" width="22.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.7109375" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="60" t="s">
         <v>55</v>
       </c>
@@ -3893,8 +4346,17 @@
       <c r="N1" s="60" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="60" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="62">
         <v>2016</v>
       </c>
@@ -3949,8 +4411,19 @@
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1934034.4014999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="63">
+        <f>K2</f>
+        <v>654224.44741861895</v>
+      </c>
+      <c r="P2" s="63">
+        <f>K2</f>
+        <v>654224.44741861895</v>
+      </c>
+      <c r="Q2" s="63">
+        <v>7982156.7055278737</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="62">
         <v>2017</v>
       </c>
@@ -4005,8 +4478,19 @@
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1877151.0367499995</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="63">
+        <f t="shared" ref="O3:O36" si="0">K3</f>
+        <v>654225.44741861895</v>
+      </c>
+      <c r="P3" s="63">
+        <f t="shared" ref="P3:P36" si="1">K3</f>
+        <v>654225.44741861895</v>
+      </c>
+      <c r="Q3" s="63">
+        <v>7971502.811055745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="62">
         <v>2018</v>
       </c>
@@ -4054,15 +4538,26 @@
         <v>225421.05590482842</v>
       </c>
       <c r="M4" s="68">
-        <f t="shared" ref="M4:M36" si="0">B4</f>
+        <f t="shared" ref="M4:M36" si="2">B4</f>
         <v>1213965.8323629345</v>
       </c>
       <c r="N4" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1820267.6719999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="63">
+        <f t="shared" si="0"/>
+        <v>652272.3387205411</v>
+      </c>
+      <c r="P4" s="63">
+        <f t="shared" si="1"/>
+        <v>652272.3387205411</v>
+      </c>
+      <c r="Q4" s="63">
+        <v>7982156.7055278737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="62">
         <v>2019</v>
       </c>
@@ -4110,15 +4605,26 @@
         <v>224570.73951333846</v>
       </c>
       <c r="M5" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1195434.1595754204</v>
       </c>
       <c r="N5" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1763384.3072499996</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="63">
+        <f t="shared" si="0"/>
+        <v>649811.88595093053</v>
+      </c>
+      <c r="P5" s="63">
+        <f t="shared" si="1"/>
+        <v>649811.88595093053</v>
+      </c>
+      <c r="Q5" s="63">
+        <v>7971502.811055745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="62">
         <v>2020</v>
       </c>
@@ -4166,15 +4672,26 @@
         <v>223042.89380477279</v>
       </c>
       <c r="M6" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1175523.329296258</v>
       </c>
       <c r="N6" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1706500.9424999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="63">
+        <f t="shared" si="0"/>
+        <v>645390.95246922853</v>
+      </c>
+      <c r="P6" s="63">
+        <f t="shared" si="1"/>
+        <v>645390.95246922853</v>
+      </c>
+      <c r="Q6" s="63">
+        <v>7958626.596631432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="62">
         <v>2021</v>
       </c>
@@ -4222,15 +4739,26 @@
         <v>222367.8605091499</v>
       </c>
       <c r="M7" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1168582.0971421334</v>
       </c>
       <c r="N7" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1698916.4938666665</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="63">
+        <f t="shared" si="0"/>
+        <v>643437.69417805946</v>
+      </c>
+      <c r="P7" s="63">
+        <f t="shared" si="1"/>
+        <v>643437.69417805946</v>
+      </c>
+      <c r="Q7" s="63">
+        <v>8047515.0385973537</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="62">
         <v>2022</v>
       </c>
@@ -4278,15 +4806,26 @@
         <v>221678.3943288076</v>
       </c>
       <c r="M8" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1162627.4636984007</v>
       </c>
       <c r="N8" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1691332.0452333335</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="63">
+        <f t="shared" si="0"/>
+        <v>641442.67327765853</v>
+      </c>
+      <c r="P8" s="63">
+        <f t="shared" si="1"/>
+        <v>641442.67327765853</v>
+      </c>
+      <c r="Q8" s="63">
+        <v>7840906.0539358519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="62">
         <v>2023</v>
       </c>
@@ -4334,15 +4873,26 @@
         <v>221003.27518591477</v>
       </c>
       <c r="M9" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1156673.0407020953</v>
       </c>
       <c r="N9" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1683747.5966</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="63">
+        <f t="shared" si="0"/>
+        <v>639489.166581125</v>
+      </c>
+      <c r="P9" s="63">
+        <f t="shared" si="1"/>
+        <v>639489.166581125</v>
+      </c>
+      <c r="Q9" s="63">
+        <v>7803020.8428130085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="62">
         <v>2024</v>
       </c>
@@ -4390,15 +4940,26 @@
         <v>220328.41504700333</v>
       </c>
       <c r="M10" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1149424.5086344723</v>
       </c>
       <c r="N10" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1676163.1479666671</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="63">
+        <f t="shared" si="0"/>
+        <v>637536.40933158563</v>
+      </c>
+      <c r="P10" s="63">
+        <f t="shared" si="1"/>
+        <v>637536.40933158563</v>
+      </c>
+      <c r="Q10" s="63">
+        <v>7768616.5588959409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="62">
         <v>2025</v>
       </c>
@@ -4446,15 +5007,26 @@
         <v>219618.72223970515</v>
       </c>
       <c r="M11" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1143177.0393741301</v>
       </c>
       <c r="N11" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1668578.6993333336</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="63">
+        <f t="shared" si="0"/>
+        <v>635482.86120436469</v>
+      </c>
+      <c r="P11" s="63">
+        <f t="shared" si="1"/>
+        <v>635482.86120436469</v>
+      </c>
+      <c r="Q11" s="63">
+        <v>7764569.8125896389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="62">
         <v>2026</v>
       </c>
@@ -4502,15 +5074,26 @@
         <v>217383.33771016751</v>
       </c>
       <c r="M12" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1135699.7247412449</v>
       </c>
       <c r="N12" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1660994.2507000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="63">
+        <f t="shared" si="0"/>
+        <v>629014.61231266905</v>
+      </c>
+      <c r="P12" s="63">
+        <f t="shared" si="1"/>
+        <v>629014.61231266905</v>
+      </c>
+      <c r="Q12" s="63">
+        <v>7757634.4939132584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="62">
         <v>2027</v>
       </c>
@@ -4558,15 +5141,26 @@
         <v>215686.48282967936</v>
       </c>
       <c r="M13" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1126525.2248683956</v>
       </c>
       <c r="N13" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1653409.8020666672</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="63">
+        <f t="shared" si="0"/>
+        <v>624104.63841106219</v>
+      </c>
+      <c r="P13" s="63">
+        <f t="shared" si="1"/>
+        <v>624104.63841106219</v>
+      </c>
+      <c r="Q13" s="63">
+        <v>7746868.1516131693</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="62">
         <v>2028</v>
       </c>
@@ -4614,15 +5208,26 @@
         <v>214121.35246846115</v>
       </c>
       <c r="M14" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1120315.2626683728</v>
       </c>
       <c r="N14" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1645825.3534333338</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="63">
+        <f t="shared" si="0"/>
+        <v>619575.81905558321</v>
+      </c>
+      <c r="P14" s="63">
+        <f t="shared" si="1"/>
+        <v>619575.81905558321</v>
+      </c>
+      <c r="Q14" s="63">
+        <v>7728499.6649701986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="62">
         <v>2029</v>
       </c>
@@ -4670,15 +5275,26 @@
         <v>213040.53023845272</v>
       </c>
       <c r="M15" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1112826.9219266754</v>
       </c>
       <c r="N15" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1638240.9048000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="63">
+        <f t="shared" si="0"/>
+        <v>616448.38075626816</v>
+      </c>
+      <c r="P15" s="63">
+        <f t="shared" si="1"/>
+        <v>616448.38075626816</v>
+      </c>
+      <c r="Q15" s="63">
+        <v>7694951.9782399936</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="62">
         <v>2030</v>
       </c>
@@ -4726,15 +5342,26 @@
         <v>211884.73065622948</v>
       </c>
       <c r="M16" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1104540.3071350553</v>
       </c>
       <c r="N16" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1630656.4561666665</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="63">
+        <f t="shared" si="0"/>
+        <v>613103.989995774</v>
+      </c>
+      <c r="P16" s="63">
+        <f t="shared" si="1"/>
+        <v>613103.989995774</v>
+      </c>
+      <c r="Q16" s="63">
+        <v>7673261.2195788976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="62">
         <v>2031</v>
       </c>
@@ -4782,15 +5409,26 @@
         <v>210846.81442816797</v>
       </c>
       <c r="M17" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1097110.6825091708</v>
       </c>
       <c r="N17" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1624968.1196916667</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="63">
+        <f t="shared" si="0"/>
+        <v>610100.70335621736</v>
+      </c>
+      <c r="P17" s="63">
+        <f t="shared" si="1"/>
+        <v>610100.70335621736</v>
+      </c>
+      <c r="Q17" s="63">
+        <v>7651766.5026455559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="62">
         <v>2032</v>
       </c>
@@ -4838,15 +5476,26 @@
         <v>210043.86440981858</v>
       </c>
       <c r="M18" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1090789.4111003743</v>
       </c>
       <c r="N18" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1619279.7832166667</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="63">
+        <f t="shared" si="0"/>
+        <v>607777.3086571634</v>
+      </c>
+      <c r="P18" s="63">
+        <f t="shared" si="1"/>
+        <v>607777.3086571634</v>
+      </c>
+      <c r="Q18" s="63">
+        <v>7626303.7360194027</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="62">
         <v>2033</v>
       </c>
@@ -4894,15 +5543,26 @@
         <v>209342.58318007013</v>
       </c>
       <c r="M19" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1082999.338611092</v>
       </c>
       <c r="N19" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1613591.4467416666</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="63">
+        <f t="shared" si="0"/>
+        <v>605748.1000457817</v>
+      </c>
+      <c r="P19" s="63">
+        <f t="shared" si="1"/>
+        <v>605748.1000457817</v>
+      </c>
+      <c r="Q19" s="63">
+        <v>7603867.4320185054</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="62">
         <v>2034</v>
       </c>
@@ -4950,15 +5610,26 @@
         <v>208629.52367249745</v>
       </c>
       <c r="M20" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1076122.5030056713</v>
       </c>
       <c r="N20" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1607903.1102666666</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" s="63">
+        <f t="shared" si="0"/>
+        <v>603684.81012468517</v>
+      </c>
+      <c r="P20" s="63">
+        <f t="shared" si="1"/>
+        <v>603684.81012468517</v>
+      </c>
+      <c r="Q20" s="63">
+        <v>7587101.1716198716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="62">
         <v>2035</v>
       </c>
@@ -5006,15 +5677,26 @@
         <v>207815.8463029385</v>
       </c>
       <c r="M21" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1069554.6979027926</v>
       </c>
       <c r="N21" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1602214.7737916671</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" s="63">
+        <f t="shared" si="0"/>
+        <v>601330.37504906254</v>
+      </c>
+      <c r="P21" s="63">
+        <f t="shared" si="1"/>
+        <v>601330.37504906254</v>
+      </c>
+      <c r="Q21" s="63">
+        <v>7561294.8637536224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="62">
         <v>2036</v>
       </c>
@@ -5062,15 +5744,26 @@
         <v>206995.90155866728</v>
       </c>
       <c r="M22" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1063214.3963148084</v>
       </c>
       <c r="N22" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1596526.4373166671</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" s="63">
+        <f t="shared" si="0"/>
+        <v>598957.8048655868</v>
+      </c>
+      <c r="P22" s="63">
+        <f t="shared" si="1"/>
+        <v>598957.8048655868</v>
+      </c>
+      <c r="Q22" s="63">
+        <v>7538547.4766855622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="62">
         <v>2037</v>
       </c>
@@ -5118,15 +5811,26 @@
         <v>206303.89035113243</v>
       </c>
       <c r="M23" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1055784.0033290919</v>
       </c>
       <c r="N23" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1590838.100841667</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" s="63">
+        <f t="shared" si="0"/>
+        <v>596955.4197425656</v>
+      </c>
+      <c r="P23" s="63">
+        <f t="shared" si="1"/>
+        <v>596955.4197425656</v>
+      </c>
+      <c r="Q23" s="63">
+        <v>7514086.0827102391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="62">
         <v>2038</v>
       </c>
@@ -5174,15 +5878,26 @@
         <v>205434.60546513903</v>
       </c>
       <c r="M24" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1049611.4969497095</v>
       </c>
       <c r="N24" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1585149.7643666675</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" s="63">
+        <f t="shared" si="0"/>
+        <v>594440.08024455211</v>
+      </c>
+      <c r="P24" s="63">
+        <f t="shared" si="1"/>
+        <v>594440.08024455211</v>
+      </c>
+      <c r="Q24" s="63">
+        <v>7493538.9828844583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="62">
         <v>2039</v>
       </c>
@@ -5230,15 +5945,26 @@
         <v>204741.37403699796</v>
       </c>
       <c r="M25" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1042723.8261059952</v>
       </c>
       <c r="N25" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1579461.4278916675</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" s="63">
+        <f t="shared" si="0"/>
+        <v>592434.16432381817</v>
+      </c>
+      <c r="P25" s="63">
+        <f t="shared" si="1"/>
+        <v>592434.16432381817</v>
+      </c>
+      <c r="Q25" s="63">
+        <v>7469211.21148971</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="62">
         <v>2040</v>
       </c>
@@ -5286,15 +6012,26 @@
         <v>203931.06337838486</v>
       </c>
       <c r="M26" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1036220.1786970552</v>
       </c>
       <c r="N26" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1573773.0914166674</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" s="63">
+        <f t="shared" si="0"/>
+        <v>590089.47107294935</v>
+      </c>
+      <c r="P26" s="63">
+        <f t="shared" si="1"/>
+        <v>590089.47107294935</v>
+      </c>
+      <c r="Q26" s="63">
+        <v>7445775.4433545973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="62">
         <v>2041</v>
       </c>
@@ -5342,15 +6079,26 @@
         <v>203135.69665060038</v>
       </c>
       <c r="M27" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1029388.1658532553</v>
       </c>
       <c r="N27" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1568084.7549416679</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" s="63">
+        <f t="shared" si="0"/>
+        <v>587788.019180667</v>
+      </c>
+      <c r="P27" s="63">
+        <f t="shared" si="1"/>
+        <v>587788.019180667</v>
+      </c>
+      <c r="Q27" s="63">
+        <v>7429595.5857021902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="62">
         <v>2042</v>
       </c>
@@ -5398,15 +6146,26 @@
         <v>202340.3299228159</v>
       </c>
       <c r="M28" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1022556.1530094552</v>
       </c>
       <c r="N28" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1562396.4184666676</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" s="63">
+        <f t="shared" si="0"/>
+        <v>585486.56728838454</v>
+      </c>
+      <c r="P28" s="63">
+        <f t="shared" si="1"/>
+        <v>585486.56728838454</v>
+      </c>
+      <c r="Q28" s="63">
+        <v>7397570.8487657513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="62">
         <v>2043</v>
       </c>
@@ -5454,15 +6213,26 @@
         <v>201544.96319503142</v>
       </c>
       <c r="M29" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1015724.1401656551</v>
       </c>
       <c r="N29" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1556708.0819916679</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" s="63">
+        <f t="shared" si="0"/>
+        <v>583185.11539610196</v>
+      </c>
+      <c r="P29" s="63">
+        <f t="shared" si="1"/>
+        <v>583185.11539610196</v>
+      </c>
+      <c r="Q29" s="63">
+        <v>7385036.9682956832</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="62">
         <v>2044</v>
       </c>
@@ -5510,15 +6280,26 @@
         <v>200749.59646724694</v>
       </c>
       <c r="M30" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1008892.1273218552</v>
       </c>
       <c r="N30" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1551019.7455166683</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" s="63">
+        <f t="shared" si="0"/>
+        <v>580883.66350381961</v>
+      </c>
+      <c r="P30" s="63">
+        <f t="shared" si="1"/>
+        <v>580883.66350381961</v>
+      </c>
+      <c r="Q30" s="63">
+        <v>7354522.1212749518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="62">
         <v>2045</v>
       </c>
@@ -5566,15 +6347,26 @@
         <v>199954.22973946249</v>
       </c>
       <c r="M31" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1002060.114478055</v>
       </c>
       <c r="N31" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1545331.4090416681</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" s="63">
+        <f t="shared" si="0"/>
+        <v>578582.21161153703</v>
+      </c>
+      <c r="P31" s="63">
+        <f t="shared" si="1"/>
+        <v>578582.21161153703</v>
+      </c>
+      <c r="Q31" s="63">
+        <v>7340437.2226737272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="62">
         <v>2046</v>
       </c>
@@ -5622,15 +6414,26 @@
         <v>199158.86301167798</v>
       </c>
       <c r="M32" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>995228.10163425491</v>
       </c>
       <c r="N32" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1539643.0725666683</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" s="63">
+        <f t="shared" si="0"/>
+        <v>576280.75971925457</v>
+      </c>
+      <c r="P32" s="63">
+        <f t="shared" si="1"/>
+        <v>576280.75971925457</v>
+      </c>
+      <c r="Q32" s="63">
+        <v>7312648.7933935076</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="62">
         <v>2047</v>
       </c>
@@ -5678,15 +6481,26 @@
         <v>198363.49628389353</v>
       </c>
       <c r="M33" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>988396.0887904549</v>
       </c>
       <c r="N33" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1533954.7360916685</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" s="63">
+        <f t="shared" si="0"/>
+        <v>573979.3078269721</v>
+      </c>
+      <c r="P33" s="63">
+        <f t="shared" si="1"/>
+        <v>573979.3078269721</v>
+      </c>
+      <c r="Q33" s="63">
+        <v>7291302.5022382103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="62">
         <v>2048</v>
       </c>
@@ -5734,15 +6548,26 @@
         <v>197568.12955610908</v>
       </c>
       <c r="M34" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>981564.07594665489</v>
       </c>
       <c r="N34" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1528266.3996166685</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" s="63">
+        <f t="shared" si="0"/>
+        <v>571677.85593468964</v>
+      </c>
+      <c r="P34" s="63">
+        <f t="shared" si="1"/>
+        <v>571677.85593468964</v>
+      </c>
+      <c r="Q34" s="63">
+        <v>7269844.3251363151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="62">
         <v>2049</v>
       </c>
@@ -5790,15 +6615,26 @@
         <v>196772.7628283246</v>
       </c>
       <c r="M35" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>974732.06310285488</v>
       </c>
       <c r="N35" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A35,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1522578.0631416687</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" s="63">
+        <f t="shared" si="0"/>
+        <v>569376.40404240706</v>
+      </c>
+      <c r="P35" s="63">
+        <f t="shared" si="1"/>
+        <v>569376.40404240706</v>
+      </c>
+      <c r="Q35" s="63">
+        <v>7247772.4406001931</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="62">
         <v>2050</v>
       </c>
@@ -5846,48 +6682,59 @@
         <v>195977.39610054012</v>
       </c>
       <c r="M36" s="68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>967900.05025905464</v>
       </c>
       <c r="N36" s="63">
         <f>EDO!$C$4*INDEX('Cost Improvement (wind&amp;solar)'!$I$2:$L$42,MATCH('CCaMC-BCCpUC'!$A36,'Cost Improvement (wind&amp;solar)'!$H$2:$H$42,0),MATCH("offshore wind",'Cost Improvement (wind&amp;solar)'!$I$1:$L$1,0))*1000*About!$A$60</f>
         <v>1516889.7266666666</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" s="63">
+        <f t="shared" si="0"/>
+        <v>567074.95215012471</v>
+      </c>
+      <c r="P36" s="63">
+        <f t="shared" si="1"/>
+        <v>567074.95215012471</v>
+      </c>
+      <c r="Q36" s="63">
+        <v>7173106.1111970115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="B37" s="64"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:17">
       <c r="B38" s="64"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:17">
       <c r="B39" s="64"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:17">
       <c r="B40" s="64"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:17">
       <c r="B41" s="64"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:17">
       <c r="B42" s="64"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:17">
       <c r="B43" s="64"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:17">
       <c r="B44" s="64"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:17">
       <c r="B45" s="64"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:17">
       <c r="B46" s="64"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:17">
       <c r="B47" s="64"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:17">
       <c r="B48" s="64"/>
     </row>
     <row r="49" spans="2:2">
@@ -5917,24 +6764,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="76" t="s">
         <v>208</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72" t="s">
+      <c r="E1" s="76"/>
+      <c r="F1" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="72"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="72"/>
+      <c r="A2" s="76"/>
       <c r="B2" t="s">
         <v>209</v>
       </c>
@@ -8002,17 +8849,17 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="36" t="s">
@@ -22974,16 +23821,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="78" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="74"/>
+      <c r="D1" s="78"/>
       <c r="I1" t="s">
         <v>250</v>
       </c>
@@ -22998,8 +23845,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="45">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="17" t="s">
         <v>241</v>
       </c>
@@ -23023,16 +23870,16 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="78" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="17">
         <v>2010</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="78">
         <v>1.2</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="78"/>
       <c r="H3">
         <v>2011</v>
       </c>
@@ -23054,7 +23901,7 @@
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="74"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="17">
         <v>2020</v>
       </c>
@@ -23085,7 +23932,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="74"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="17">
         <v>2030</v>
       </c>
@@ -23116,7 +23963,7 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="74"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="17">
         <v>2050</v>
       </c>
@@ -23147,16 +23994,16 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="78" t="s">
         <v>244</v>
       </c>
       <c r="B7" s="17">
         <v>2010</v>
       </c>
-      <c r="C7" s="74">
+      <c r="C7" s="78">
         <v>3</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="78"/>
       <c r="H7">
         <v>2015</v>
       </c>
@@ -23178,7 +24025,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="74"/>
+      <c r="A8" s="78"/>
       <c r="B8" s="17">
         <v>2020</v>
       </c>
@@ -23209,7 +24056,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="74"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="17">
         <v>2030</v>
       </c>
@@ -23240,7 +24087,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="74"/>
+      <c r="A10" s="78"/>
       <c r="B10" s="17">
         <v>2050</v>
       </c>
@@ -23271,16 +24118,16 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="78" t="s">
         <v>245</v>
       </c>
       <c r="B11" s="17">
         <v>2010</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="78">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D11" s="74"/>
+      <c r="D11" s="78"/>
       <c r="H11">
         <v>2019</v>
       </c>
@@ -23302,7 +24149,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="74"/>
+      <c r="A12" s="78"/>
       <c r="B12" s="17">
         <v>2020</v>
       </c>
@@ -23333,7 +24180,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="74"/>
+      <c r="A13" s="78"/>
       <c r="B13" s="17">
         <v>2030</v>
       </c>
@@ -23364,7 +24211,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="74"/>
+      <c r="A14" s="78"/>
       <c r="B14" s="17">
         <v>2050</v>
       </c>
@@ -23395,16 +24242,16 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="78" t="s">
         <v>246</v>
       </c>
       <c r="B15" s="17">
         <v>2010</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="78">
         <v>2.5</v>
       </c>
-      <c r="D15" s="74"/>
+      <c r="D15" s="78"/>
       <c r="H15">
         <v>2023</v>
       </c>
@@ -23426,7 +24273,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="74"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="17">
         <v>2020</v>
       </c>
@@ -23457,7 +24304,7 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="74"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="17">
         <v>2030</v>
       </c>
@@ -23488,7 +24335,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="74"/>
+      <c r="A18" s="78"/>
       <c r="B18" s="17">
         <v>2050</v>
       </c>
@@ -23519,16 +24366,16 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="78" t="s">
         <v>247</v>
       </c>
       <c r="B19" s="17">
         <v>2010</v>
       </c>
-      <c r="C19" s="74">
+      <c r="C19" s="78">
         <v>2.9</v>
       </c>
-      <c r="D19" s="74"/>
+      <c r="D19" s="78"/>
       <c r="H19">
         <v>2027</v>
       </c>
@@ -23550,7 +24397,7 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="74"/>
+      <c r="A20" s="78"/>
       <c r="B20" s="17">
         <v>2020</v>
       </c>
@@ -23581,7 +24428,7 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="74"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="17">
         <v>2030</v>
       </c>
@@ -23612,7 +24459,7 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="74"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="17">
         <v>2050</v>
       </c>
@@ -23643,16 +24490,16 @@
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="78" t="s">
         <v>248</v>
       </c>
       <c r="B23" s="17">
         <v>2010</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="78">
         <v>5</v>
       </c>
-      <c r="D23" s="74"/>
+      <c r="D23" s="78"/>
       <c r="H23">
         <v>2031</v>
       </c>
@@ -23674,7 +24521,7 @@
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="74"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="17">
         <v>2020</v>
       </c>
@@ -23705,7 +24552,7 @@
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="74"/>
+      <c r="A25" s="78"/>
       <c r="B25" s="17">
         <v>2030</v>
       </c>
@@ -23736,7 +24583,7 @@
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="74"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="17">
         <v>2050</v>
       </c>
@@ -23767,16 +24614,16 @@
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="74" t="s">
+      <c r="A27" s="78" t="s">
         <v>249</v>
       </c>
       <c r="B27" s="17">
         <v>2010</v>
       </c>
-      <c r="C27" s="74">
+      <c r="C27" s="78">
         <v>6.5</v>
       </c>
-      <c r="D27" s="74"/>
+      <c r="D27" s="78"/>
       <c r="H27">
         <v>2035</v>
       </c>
@@ -23798,7 +24645,7 @@
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="74"/>
+      <c r="A28" s="78"/>
       <c r="B28" s="17">
         <v>2020</v>
       </c>
@@ -23829,7 +24676,7 @@
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="74"/>
+      <c r="A29" s="78"/>
       <c r="B29" s="17">
         <v>2030</v>
       </c>
@@ -23860,7 +24707,7 @@
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="74"/>
+      <c r="A30" s="78"/>
       <c r="B30" s="17">
         <v>2050</v>
       </c>
@@ -24168,264 +25015,109 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337F4D1D-3FBA-4E74-8B3D-8AD70E04A037}">
+  <dimension ref="M1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:D14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4">
-        <f>EDO!E7*About!A60*1000</f>
-        <v>28508.559999999998</v>
-      </c>
-      <c r="C2" s="4">
-        <f>$B2</f>
-        <v>28508.559999999998</v>
-      </c>
-      <c r="D2" s="4">
-        <f>$B2</f>
-        <v>28508.559999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4">
-        <f>EDO!E6*About!A60*1000</f>
-        <v>7156.27</v>
-      </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:D10" si="0">$B3</f>
-        <v>7156.27</v>
-      </c>
-      <c r="D3" s="4">
-        <f t="shared" si="0"/>
-        <v>7156.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="4">
-        <f>EDO!E9*About!A60*1000</f>
-        <v>129298.36</v>
-      </c>
-      <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>129298.36</v>
-      </c>
-      <c r="D4" s="4">
-        <f t="shared" si="0"/>
-        <v>129298.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="4">
-        <f>'Hydro and Geothermal'!C2*(1-'O&amp;M Share'!R2)*About!A58*1000</f>
-        <v>13002.649891226933</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>13002.649891226933</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>13002.649891226933</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="4">
-        <f>EDO!E3*About!A60*1000</f>
-        <v>10564.48</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>10564.48</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>10564.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="4">
-        <f>EDO!E5*About!A60*1000</f>
-        <v>26013.089999999997</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>26013.089999999997</v>
-      </c>
-      <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>26013.089999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="4">
-        <f>'Solar thermal'!C3*(1-'O&amp;M Share'!R3)</f>
-        <v>44500</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>44500</v>
-      </c>
-      <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>44500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4">
-        <f>EDO!E8*About!A60*1000</f>
-        <v>29071.74</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>29071.74</v>
-      </c>
-      <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>29071.74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="4">
-        <f>'Hydro and Geothermal'!C3*(1-'O&amp;M Share'!R4)*About!A58*1000</f>
-        <v>104830</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>104830</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>104830</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="4">
-        <v>7340</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>7040</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="4">
-        <f>B3*('EIA Costs'!$F$9/'EIA Costs'!$F$6)</f>
-        <v>3279.9570833333337</v>
-      </c>
-      <c r="C12" s="4">
-        <f>C3*('EIA Costs'!$F$9/'EIA Costs'!$F$6)</f>
-        <v>3279.9570833333337</v>
-      </c>
-      <c r="D12" s="4">
-        <f>D3*('EIA Costs'!$F$9/'EIA Costs'!$F$6)</f>
-        <v>3279.9570833333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B2</f>
-        <v>28508.559999999998</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" ref="C13:D13" si="1">C2</f>
-        <v>28508.559999999998</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="1"/>
-        <v>28508.559999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
-        <f>EDO!E4*About!A60*1000</f>
-        <v>16905.11</v>
-      </c>
-      <c r="C14">
-        <f>$B14</f>
-        <v>16905.11</v>
-      </c>
-      <c r="D14">
-        <f>$B14</f>
-        <v>16905.11</v>
+    <row r="1" spans="13:19">
+      <c r="M1" t="s">
+        <v>361</v>
+      </c>
+      <c r="N1">
+        <v>18.010000000000002</v>
+      </c>
+      <c r="O1" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>364</v>
+      </c>
+      <c r="S1">
+        <v>0.12759999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="13:19">
+      <c r="M2" t="s">
+        <v>363</v>
+      </c>
+      <c r="N2">
+        <f>13.38/10</f>
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="O2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="13:19">
+      <c r="M4" t="s">
+        <v>361</v>
+      </c>
+      <c r="N4">
+        <f>N1*S1</f>
+        <v>2.298076</v>
+      </c>
+      <c r="O4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="13:19">
+      <c r="M5" t="s">
+        <v>363</v>
+      </c>
+      <c r="N5">
+        <f>N2*S1</f>
+        <v>0.17072879999999999</v>
+      </c>
+      <c r="O5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="13:19">
+      <c r="M7" t="s">
+        <v>366</v>
+      </c>
+      <c r="N7">
+        <v>165</v>
+      </c>
+      <c r="O7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="13:19">
+      <c r="M9" t="s">
+        <v>368</v>
+      </c>
+      <c r="N9" s="74">
+        <f>SUM(N4:N5)*10^9/N7</f>
+        <v>14962453.333333334</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -24659,7 +25351,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -24668,16 +25360,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53D4B8D-07E4-480A-9102-59E43F1C6BD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F753106C-6C96-40DB-989F-DDACB7271E62}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -24697,7 +25388,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{666A01E7-B2FB-4480-B432-5D73735A58CA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -24713,12 +25404,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C53D4B8D-07E4-480A-9102-59E43F1C6BD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>